--- a/BIOL3120/Practicals/Week 8/Topic sentence file.xlsx
+++ b/BIOL3120/Practicals/Week 8/Topic sentence file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mqoutlook-my.sharepoint.com/personal/oliver_griffith_mq_edu_au/Documents/2. BIOL3120/Scientific writing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MQ20201428\Documents\GitHub\BIOL3120\Practicals\Week 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3D3BAB6E-0990-AC40-B9C5-B60A8AEAF503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEA9D678-5A4F-B945-90B3-B009BDE420EA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BFCE07-BD23-48E7-9DED-C6D0BEA2F443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35460" yWindow="-10460" windowWidth="33100" windowHeight="21100" xr2:uid="{062686A4-67FB-8B45-B25A-FCA95F498549}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{062686A4-67FB-8B45-B25A-FCA95F498549}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomised" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Galectin-7 Impairs Placentation and Causes Preeclampsia Features in Mice</t>
   </si>
@@ -178,15 +178,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,17 +200,120 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,259 +628,433 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8307B953-A8E6-4A48-9BC5-D67B190FBC0C}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="207.6640625" customWidth="1"/>
+    <col min="6" max="6" width="207.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="12">
+        <v>2</v>
+      </c>
+      <c r="D2" s="12">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>7</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+      <c r="E4" s="16">
+        <v>4</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>9</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20">
+        <v>3</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="16">
+        <v>6</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3"/>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="9">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9">
+        <v>4</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="16">
+        <v>5</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>5</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2" t="s">
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1" t="s">
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:E23">
-    <sortCondition ref="E2:E23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:F23">
+    <sortCondition ref="D1:D23"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>